--- a/results/escherichia_coli/Omics_Study/ecoli_carbon_source_enriched_Function.xlsx
+++ b/results/escherichia_coli/Omics_Study/ecoli_carbon_source_enriched_Function.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -792,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,11 +818,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,11 +831,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -844,11 +844,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -857,11 +857,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -870,11 +870,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -883,7 +883,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -922,11 +922,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="11">
@@ -935,11 +935,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -948,11 +948,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -961,11 +961,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -974,11 +974,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1039,11 +1039,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="21">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1052631578947368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1104,11 +1104,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="27">
@@ -1143,11 +1143,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1156,11 +1156,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="29">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="32">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1234,11 +1234,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1291,19 +1291,6 @@
       </c>
       <c r="C38" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1438,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1464,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1529,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="18">
@@ -1594,7 +1581,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="22">
@@ -1633,7 +1620,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1673,7 +1660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,7 +1686,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1712,7 +1699,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1725,7 +1712,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1738,11 +1725,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1751,7 +1738,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1764,7 +1751,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1777,7 +1764,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1790,7 +1777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1803,7 +1790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1816,11 +1803,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="12">
@@ -1829,7 +1816,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1842,7 +1829,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1855,7 +1842,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1868,7 +1855,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1881,11 +1868,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1881,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1907,11 +1894,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="19">
@@ -1920,11 +1907,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.631578947368421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1933,11 +1920,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="21">
@@ -1946,11 +1933,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1959,7 +1946,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1972,7 +1959,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1985,7 +1972,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1998,11 +1985,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2011,11 +1998,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2024,7 +2011,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2037,11 +2024,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2063,7 +2050,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2076,7 +2063,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2089,7 +2076,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2102,7 +2089,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2115,7 +2102,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2128,11 +2115,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2141,11 +2128,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2154,11 +2141,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="38">
@@ -2171,19 +2158,6 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,7 +2172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,11 +2198,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2237,11 +2211,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2250,11 +2224,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2263,11 +2237,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2276,11 +2250,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2289,7 +2263,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2302,11 +2276,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05263157894736842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2315,7 +2289,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2328,7 +2302,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2341,11 +2315,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2354,11 +2328,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2367,11 +2341,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8421052631578947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2380,11 +2354,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="15">
@@ -2393,7 +2367,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2406,7 +2380,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2419,11 +2393,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2432,11 +2406,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5263157894736842</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2445,7 +2419,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2458,7 +2432,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2471,7 +2445,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2484,11 +2458,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2497,11 +2471,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="24">
@@ -2510,11 +2484,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2497,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2536,7 +2510,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2549,11 +2523,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.631578947368421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2562,11 +2536,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2588,11 +2562,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2601,11 +2575,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="32">
@@ -2614,11 +2588,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2627,11 +2601,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2640,11 +2614,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2653,7 +2627,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2666,11 +2640,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="37">
@@ -2679,7 +2653,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2697,19 +2671,6 @@
       </c>
       <c r="C38" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +2818,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2883,7 +2844,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5263157894736842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2922,7 +2883,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="16">
@@ -3079,7 +3040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3105,7 +3066,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3118,7 +3079,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3131,7 +3092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3144,11 +3105,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3157,7 +3118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3170,7 +3131,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3183,7 +3144,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3196,7 +3157,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3209,7 +3170,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3222,11 +3183,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3235,7 +3196,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3248,7 +3209,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3261,7 +3222,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3274,7 +3235,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3287,11 +3248,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3300,7 +3261,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3313,7 +3274,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3326,7 +3287,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3339,11 +3300,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3352,11 +3313,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3365,7 +3326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3378,11 +3339,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4210526315789473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3391,7 +3352,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3404,11 +3365,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3417,11 +3378,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3430,7 +3391,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3443,11 +3404,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5263157894736842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3469,7 +3430,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3482,7 +3443,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3495,7 +3456,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3508,7 +3469,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3521,7 +3482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3534,11 +3495,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3547,11 +3508,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="37">
@@ -3560,11 +3521,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="38">
@@ -3577,19 +3538,6 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,7 +3660,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3725,7 +3673,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3829,7 +3777,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3960,7 +3908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3986,11 +3934,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3999,11 +3947,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4012,11 +3960,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="5">
@@ -4025,11 +3973,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4038,11 +3986,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4051,7 +3999,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4064,7 +4012,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4077,11 +4025,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="10">
@@ -4090,7 +4038,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4103,7 +4051,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4116,11 +4064,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4129,11 +4077,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="14">
@@ -4142,11 +4090,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -4155,11 +4103,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4168,7 +4116,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4181,11 +4129,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4194,11 +4142,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4207,7 +4155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4220,11 +4168,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4233,11 +4181,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="22">
@@ -4246,11 +4194,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="23">
@@ -4259,11 +4207,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="24">
@@ -4272,11 +4220,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4285,7 +4233,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4298,7 +4246,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4311,11 +4259,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1052631578947368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4324,11 +4272,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="29">
@@ -4350,11 +4298,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1052631578947368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4363,7 +4311,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4376,11 +4324,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4389,11 +4337,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4402,11 +4350,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4415,7 +4363,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4428,11 +4376,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4441,7 +4389,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4459,19 +4407,6 @@
       </c>
       <c r="C38" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4619,7 +4554,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4710,7 +4645,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4841,7 +4776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,7 +4802,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4880,7 +4815,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4893,7 +4828,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4906,11 +4841,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="6">
@@ -4919,7 +4854,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4932,7 +4867,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4945,7 +4880,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4958,7 +4893,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4971,7 +4906,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4984,11 +4919,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4997,7 +4932,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -5010,7 +4945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5023,7 +4958,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -5036,7 +4971,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5049,11 +4984,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5062,7 +4997,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -5075,7 +5010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5088,11 +5023,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1052631578947368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5101,11 +5036,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -5114,11 +5049,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -5127,7 +5062,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5140,7 +5075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -5153,7 +5088,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -5166,7 +5101,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5179,11 +5114,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5192,7 +5127,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5205,7 +5140,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5231,7 +5166,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -5244,7 +5179,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -5257,7 +5192,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -5270,7 +5205,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -5283,7 +5218,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -5296,11 +5231,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5309,11 +5244,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="37">
@@ -5322,7 +5257,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -5339,19 +5274,6 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5409,7 +5331,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5474,7 +5396,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5591,7 +5513,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="18">
